--- a/parameter_files/test/de_dg_gw_upper.xlsx
+++ b/parameter_files/test/de_dg_gw_upper.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25629"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25928"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/4efc3e9dc81381f4/Documents/SJV-gen-modeling/parameter_files/test/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="31" documentId="8_{027CEFEE-6977-4EF3-9714-F9BE2629FBB8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{D6DE9DEF-A97D-4BC2-A04F-CED7E6B49076}"/>
+  <xr:revisionPtr revIDLastSave="34" documentId="8_{027CEFEE-6977-4EF3-9714-F9BE2629FBB8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{55DA977B-98D9-4901-9346-02B82D81C35D}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" xr2:uid="{79620C5E-93EC-41E4-B7D2-2730489730D1}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" xr2:uid="{79620C5E-93EC-41E4-B7D2-2730489730D1}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -33,12 +33,9 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="36" uniqueCount="36">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="35" uniqueCount="35">
   <si>
     <t>Bureau of Reclamation</t>
-  </si>
-  <si>
-    <t>Legislature</t>
   </si>
   <si>
     <t>Friant Water Authority</t>
@@ -656,7 +653,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme 2013 - 2022" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -664,10 +661,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5BB0AAA4-2CD8-4207-AFE9-C5172655BE92}">
-  <dimension ref="A1:H30"/>
+  <dimension ref="A1:H29"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A19" workbookViewId="0">
-      <selection activeCell="G24" sqref="G24"/>
+    <sheetView tabSelected="1" topLeftCell="A14" workbookViewId="0">
+      <selection activeCell="G18" sqref="G18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -678,30 +675,30 @@
     <row r="1" spans="1:8" ht="58.5" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A1" s="5"/>
       <c r="B1" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="C1" s="11" t="s">
         <v>29</v>
       </c>
-      <c r="C1" s="11" t="s">
+      <c r="D1" s="12" t="s">
         <v>30</v>
       </c>
-      <c r="D1" s="12" t="s">
+      <c r="E1" s="12" t="s">
         <v>31</v>
       </c>
-      <c r="E1" s="12" t="s">
+      <c r="F1" s="12" t="s">
         <v>32</v>
       </c>
-      <c r="F1" s="12" t="s">
+      <c r="G1" s="12" t="s">
         <v>33</v>
       </c>
-      <c r="G1" s="12" t="s">
-        <v>34</v>
-      </c>
       <c r="H1" s="12" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
     </row>
     <row r="2" spans="1:8" ht="44" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A2" s="6" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="B2" s="3"/>
       <c r="C2" s="2"/>
@@ -712,7 +709,7 @@
     </row>
     <row r="3" spans="1:8" ht="87.5" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A3" s="6" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="B3" s="3"/>
       <c r="C3" s="2"/>
@@ -723,7 +720,7 @@
     </row>
     <row r="4" spans="1:8" ht="58.5" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A4" s="6" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="B4" s="3"/>
       <c r="C4" s="2"/>
@@ -734,7 +731,7 @@
     </row>
     <row r="5" spans="1:8" ht="44" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A5" s="6" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="B5" s="3"/>
       <c r="C5" s="2"/>
@@ -745,7 +742,7 @@
     </row>
     <row r="6" spans="1:8" ht="58.5" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A6" s="6" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="B6" s="3"/>
       <c r="C6" s="2"/>
@@ -756,7 +753,7 @@
     </row>
     <row r="7" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A7" s="6" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="B7" s="3">
         <v>0.5</v>
@@ -769,7 +766,7 @@
     </row>
     <row r="8" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A8" s="6" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="B8" s="3"/>
       <c r="C8" s="2"/>
@@ -780,7 +777,7 @@
     </row>
     <row r="9" spans="1:8" ht="29.5" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A9" s="6" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="B9" s="3"/>
       <c r="C9" s="2"/>
@@ -791,10 +788,10 @@
     </row>
     <row r="10" spans="1:8" ht="44" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A10" s="7" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="11" spans="1:8" ht="58.5" thickBot="1" x14ac:dyDescent="0.4">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="11" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A11" s="8" t="s">
         <v>0</v>
       </c>
@@ -805,7 +802,7 @@
       <c r="F11" s="2"/>
       <c r="G11" s="2"/>
     </row>
-    <row r="12" spans="1:8" ht="29.5" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="12" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A12" s="8" t="s">
         <v>1</v>
       </c>
@@ -838,7 +835,7 @@
       <c r="F14" s="2"/>
       <c r="G14" s="2"/>
     </row>
-    <row r="15" spans="1:8" ht="44" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="15" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A15" s="8" t="s">
         <v>4</v>
       </c>
@@ -849,9 +846,9 @@
       <c r="F15" s="2"/>
       <c r="G15" s="2"/>
     </row>
-    <row r="16" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A16" s="8" t="s">
-        <v>5</v>
+    <row r="16" spans="1:8" ht="58.5" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A16" s="9" t="s">
+        <v>23</v>
       </c>
       <c r="B16" s="3"/>
       <c r="C16" s="2"/>
@@ -871,81 +868,83 @@
       <c r="F17" s="2"/>
       <c r="G17" s="2"/>
     </row>
-    <row r="18" spans="1:8" ht="58.5" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="18" spans="1:8" ht="29.5" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A18" s="9" t="s">
         <v>25</v>
       </c>
-      <c r="B18" s="3"/>
+      <c r="B18" s="3">
+        <v>1</v>
+      </c>
       <c r="C18" s="2"/>
       <c r="D18" s="2"/>
       <c r="E18" s="2"/>
       <c r="F18" s="2"/>
       <c r="G18" s="2"/>
     </row>
-    <row r="19" spans="1:8" ht="58.5" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="19" spans="1:8" ht="29.5" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A19" s="9" t="s">
         <v>26</v>
       </c>
-      <c r="B19" s="3">
-        <v>2</v>
-      </c>
+      <c r="B19" s="4"/>
       <c r="C19" s="2"/>
       <c r="D19" s="2"/>
       <c r="E19" s="2"/>
       <c r="F19" s="2"/>
       <c r="G19" s="2"/>
     </row>
-    <row r="20" spans="1:8" ht="29.5" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A20" s="9" t="s">
-        <v>27</v>
-      </c>
-      <c r="B20" s="4"/>
-      <c r="C20" s="2"/>
-      <c r="D20" s="2"/>
-      <c r="E20" s="2"/>
-      <c r="F20" s="2"/>
-      <c r="G20" s="2"/>
+    <row r="20" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A20" s="13" t="s">
+        <v>34</v>
+      </c>
+      <c r="C20">
+        <v>-0.5</v>
+      </c>
+      <c r="D20">
+        <v>-0.5</v>
+      </c>
+      <c r="E20">
+        <v>-0.5</v>
+      </c>
+      <c r="F20">
+        <v>-0.5</v>
+      </c>
+      <c r="G20">
+        <v>-0.5</v>
+      </c>
+      <c r="H20">
+        <v>-0.5</v>
+      </c>
     </row>
     <row r="21" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A21" s="13" t="s">
-        <v>35</v>
-      </c>
-      <c r="C21">
-        <v>-1</v>
-      </c>
-      <c r="D21">
-        <v>-1</v>
-      </c>
-      <c r="E21">
-        <v>-1</v>
-      </c>
-      <c r="F21">
-        <v>-1</v>
-      </c>
-      <c r="G21">
-        <v>-0.5</v>
-      </c>
-      <c r="H21">
-        <v>-0.5</v>
-      </c>
+      <c r="A21" s="8" t="s">
+        <v>5</v>
+      </c>
+      <c r="B21" s="3"/>
+      <c r="C21" s="2"/>
+      <c r="D21" s="2"/>
+      <c r="E21" s="2"/>
+      <c r="F21" s="2"/>
+      <c r="G21" s="2"/>
     </row>
     <row r="22" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A22" s="8" t="s">
         <v>6</v>
       </c>
-      <c r="B22" s="3"/>
+      <c r="B22" s="4">
+        <v>0.5</v>
+      </c>
       <c r="C22" s="2"/>
       <c r="D22" s="2"/>
       <c r="E22" s="2"/>
       <c r="F22" s="2"/>
       <c r="G22" s="2"/>
     </row>
-    <row r="23" spans="1:8" ht="29.5" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="23" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A23" s="8" t="s">
         <v>7</v>
       </c>
       <c r="B23" s="4">
-        <v>0.5</v>
+        <v>1</v>
       </c>
       <c r="C23" s="2"/>
       <c r="D23" s="2"/>
@@ -957,16 +956,14 @@
       <c r="A24" s="8" t="s">
         <v>8</v>
       </c>
-      <c r="B24" s="4">
-        <v>2</v>
-      </c>
+      <c r="B24" s="3"/>
       <c r="C24" s="2"/>
       <c r="D24" s="2"/>
       <c r="E24" s="2"/>
       <c r="F24" s="2"/>
       <c r="G24" s="2"/>
     </row>
-    <row r="25" spans="1:8" ht="44" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="25" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A25" s="8" t="s">
         <v>9</v>
       </c>
@@ -977,7 +974,7 @@
       <c r="F25" s="2"/>
       <c r="G25" s="2"/>
     </row>
-    <row r="26" spans="1:8" ht="29.5" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="26" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A26" s="8" t="s">
         <v>10</v>
       </c>
@@ -988,7 +985,7 @@
       <c r="F26" s="2"/>
       <c r="G26" s="2"/>
     </row>
-    <row r="27" spans="1:8" ht="29.5" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="27" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A27" s="8" t="s">
         <v>11</v>
       </c>
@@ -1010,22 +1007,11 @@
       <c r="F28" s="2"/>
       <c r="G28" s="2"/>
     </row>
-    <row r="29" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="29" spans="1:8" ht="29.5" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A29" s="8" t="s">
         <v>13</v>
       </c>
       <c r="B29" s="3"/>
-      <c r="C29" s="2"/>
-      <c r="D29" s="2"/>
-      <c r="E29" s="2"/>
-      <c r="F29" s="2"/>
-      <c r="G29" s="2"/>
-    </row>
-    <row r="30" spans="1:8" ht="44" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A30" s="8" t="s">
-        <v>14</v>
-      </c>
-      <c r="B30" s="3"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
